--- a/data/2024 Imrana-food/2_days.xlsx
+++ b/data/2024 Imrana-food/2_days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>concentration</t>
   </si>
@@ -32,11 +32,6 @@
   </si>
   <si>
     <t>hormesis_concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.667
-1.667
-</t>
   </si>
 </sst>
 </file>
@@ -56,22 +51,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -84,16 +74,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFff0000"/>
+        <color rgb="FFffffff"/>
       </bottom>
       <diagonal/>
     </border>
@@ -103,32 +93,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +437,7 @@
     <col min="7" max="7" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +454,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -476,12 +466,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4">
         <v>1.66666666666667</v>
       </c>
@@ -491,10 +481,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="4">
         <v>3.33333333333333</v>
       </c>
@@ -506,12 +496,12 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
+      <c r="F4" s="5">
+        <v>1.66666666666667</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -524,7 +514,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="4">
         <v>33.3333333333333</v>
       </c>
@@ -537,7 +527,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="4">
         <v>100</v>
       </c>
@@ -550,7 +540,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="4">
         <v>333.333333333333</v>
       </c>
@@ -563,7 +553,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -576,13 +566,13 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
   </sheetData>

--- a/data/2024 Imrana-food/2_days.xlsx
+++ b/data/2024 Imrana-food/2_days.xlsx
@@ -51,7 +51,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -112,13 +112,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +437,7 @@
     <col min="7" max="7" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -471,9 +471,9 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
-        <v>1.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
@@ -484,9 +484,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
-        <v>3.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>100</v>
@@ -501,9 +501,9 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>100</v>
@@ -514,9 +514,9 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
-        <v>33.3333333333333</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>100</v>
@@ -527,9 +527,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5">
         <v>100</v>
@@ -540,9 +540,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
-        <v>333.333333333333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="5">
         <v>98</v>
@@ -553,7 +553,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -566,7 +566,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>

--- a/data/2024 Imrana-food/2_days.xlsx
+++ b/data/2024 Imrana-food/2_days.xlsx
@@ -496,9 +496,7 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.66666666666667</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
